--- a/code/Legend Analysis/legendMatchResultsFinalBad.xlsx
+++ b/code/Legend Analysis/legendMatchResultsFinalBad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiali\Desktop\MapElementDetection\code\Legend Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253BD7BC-E02E-4E8C-B5F9-151A00FA1924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D890604-17B4-4B87-B688-42A2B1C0FB3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{EBA64443-21D4-4C5B-81AF-29B7215ABC21}"/>
+    <workbookView xWindow="32544" yWindow="3972" windowWidth="17280" windowHeight="8016" xr2:uid="{EBA64443-21D4-4C5B-81AF-29B7215ABC21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,30 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Image name</t>
   </si>
@@ -76,9 +54,6 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>Horizontal</t>
-  </si>
-  <si>
     <t>11.map-AmFact-6eqint-orange-80pct.jpg</t>
   </si>
   <si>
@@ -112,18 +87,12 @@
     <t>292_Chloro_folium.png</t>
   </si>
   <si>
-    <t>42.moood-map-of-us.jpg</t>
-  </si>
-  <si>
     <t>6.map-AmFact-5nat-breaks-green-80pct.jpg</t>
   </si>
   <si>
     <t>77297739_2771795239530873_2730099745568587776_o.png</t>
   </si>
   <si>
-    <t>81.Equal%20Intervals-7.jpg</t>
-  </si>
-  <si>
     <t>86.5644OS_04_01.jpg</t>
   </si>
   <si>
@@ -151,9 +120,6 @@
     <t>Map_of_states_by_median_household_income_in_2014.svg.png</t>
   </si>
   <si>
-    <t>PerCapitaMap-LN-jumbo.png</t>
-  </si>
-  <si>
     <t>percentPopl65andOlder.png</t>
   </si>
   <si>
@@ -205,10 +171,49 @@
     <t>YCOM4.0.2.png</t>
   </si>
   <si>
-    <t>unclassed</t>
-  </si>
-  <si>
     <t>42-15 = 27</t>
+  </si>
+  <si>
+    <t>08_figure1.jpg</t>
+  </si>
+  <si>
+    <t>2020 census self-response by State.png</t>
+  </si>
+  <si>
+    <t>81.Equal_20Intervals-7.jpg</t>
+  </si>
+  <si>
+    <t>US Covid-19 average daily case rate in last 7 days.png</t>
+  </si>
+  <si>
+    <t>Uninsured-benefit-(1)-378f.jpg</t>
+  </si>
+  <si>
+    <t>business application 19Q4-20Q4.png</t>
+  </si>
+  <si>
+    <t>choropleth.png</t>
+  </si>
+  <si>
+    <t>demo_120_none-1.png</t>
+  </si>
+  <si>
+    <t>ff15l.png</t>
+  </si>
+  <si>
+    <t>images.png</t>
+  </si>
+  <si>
+    <t>unnamed.png</t>
+  </si>
+  <si>
+    <t>us_map65.jpg</t>
+  </si>
+  <si>
+    <t>uuid-007615b7-5371-15ed-ad1b-7ed241c59433-en.png</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -560,862 +565,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB103C9-CAA0-40D2-9C3C-59F04337F69D}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="78.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <f>B2/(B2+C2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>B2/(B2+D2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f>C4/B4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>C4/(C4+E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="e">
-        <f t="shared" ref="E3:E43" si="0">B3/(B3+C3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" t="e">
-        <f t="shared" ref="F3:F43" si="1">B3/(B3+D3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F53" si="0">C5/B5</f>
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G53" si="1">C5/(C5+E5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>51</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>54</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>55</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
       <c r="D41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>0.6875</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E44" cm="1">
-        <f t="array" ref="E44">AVERAGE(IF(ISERROR(E2:E43),"",E2:E43))</f>
-        <v>0.39248971193415644</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">AVERAGE(IF(ISERROR(F2:F43),"",F2:F43))</f>
-        <v>0.51712962962962961</v>
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44">
-        <f>2*E44*F44/(E44+F44)</f>
-        <v>0.44627032450082837</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <f>AVERAGE(F2:F53)</f>
+        <v>0.22980769230769232</v>
+      </c>
+      <c r="G54">
+        <f>AVERAGE(G2:G53)</f>
+        <v>0.86346153846153839</v>
+      </c>
+      <c r="H54">
+        <f>2*F54*G54/(F54+G54)</f>
+        <v>0.36300317975779722</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="E76">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1429,7 +1548,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
+  <conditionalFormatting sqref="E67">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1443,7 +1562,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D4:E4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1457,7 +1576,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D79 D68:D75 D7:D18 D20:D24 D26:D28 D30:D66 D2:D3">
+  <conditionalFormatting sqref="E78:E79 E68:E75 E7:E18 E20:E24 E2:E3 E26:E66">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -1484,7 +1603,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D76</xm:sqref>
+          <xm:sqref>E76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD57CF26-7D78-471A-BEA4-D42814DF6F65}">
@@ -1495,7 +1614,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D67</xm:sqref>
+          <xm:sqref>E67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3591EA3C-2E84-434D-8115-B12A457C744E}">
@@ -1506,7 +1625,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D4</xm:sqref>
+          <xm:sqref>D4:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8D602129-CAF7-45A2-8420-BA7218C51224}">
@@ -1517,7 +1636,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D78:D79 D68:D75 D7:D18 D20:D24 D26:D28 D30:D66 D2:D3</xm:sqref>
+          <xm:sqref>E78:E79 E68:E75 E7:E18 E20:E24 E2:E3 E26:E66</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
